--- a/Technology/Software/Braze.xlsx
+++ b/Technology/Software/Braze.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B538B8E-F071-0E41-A86D-C5C7B051B887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69401411-26B5-DE4C-90D5-A2E672C542F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -894,7 +894,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1034,6 +1034,8 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2205,9 +2207,11 @@
     <v>Powered by Refinitiv</v>
     <v>50.97</v>
     <v>22.535</v>
-    <v>2.1160000000000001</v>
-    <v>0.03</v>
-    <v>9.1770000000000003E-4</v>
+    <v>2.085</v>
+    <v>-0.81</v>
+    <v>-2.5674000000000002E-2</v>
+    <v>0.78900000000000003</v>
+    <v>2.5666999999999999E-2</v>
     <v>USD</v>
     <v>Braze, Inc. provides a customer engagement platform that enables customer-centric interactions between consumers and brands. Its platform enables brands to listen to their customers, understand them and act on that understanding in a way that is human and personal. Using its platform, brands ingest and process customer data in real-time, orchestrate and optimize contextually relevant, cross-channel marketing campaigns and continuously evolve their customer engagement strategies. It offers a single, vertically integrated platform that encompasses data ingestion, classification, orchestration, personalization and action. Braze SDKs are software libraries that reside within its customers’ applications or websites, automatically manage data ingestion and deliver mobile and Web notifications, in-application/in-browser interstitial messages, and content cards. Braze REST API can be used to import or export data or to trigger workflows between Braze and brands’ existing technology stacks.</v>
     <v>1501</v>
@@ -2215,23 +2219,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>330 West 34Th Street, Floor 18, New York City, NEW YORK, NY, 10001 US</v>
-    <v>32.9</v>
+    <v>32.119999999999997</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45035.976305878903</v>
+    <v>45071.848214282028</v>
     <v>0</v>
-    <v>32.090000000000003</v>
-    <v>3148712021</v>
+    <v>30.48</v>
+    <v>2977612885</v>
     <v>Braze, Inc.</v>
     <v>Braze, Inc.</v>
-    <v>32.26</v>
-    <v>32.69</v>
-    <v>32.72</v>
-    <v>96232030</v>
+    <v>32.1</v>
+    <v>31.55</v>
+    <v>30.74</v>
+    <v>31.529</v>
+    <v>96864440</v>
     <v>BRZE</v>
     <v>Braze, Inc. (XNAS:BRZE)</v>
-    <v>321753</v>
-    <v>758968</v>
+    <v>574112</v>
+    <v>710496</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2263,6 +2268,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2282,6 +2289,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2298,7 +2306,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2309,13 +2317,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2379,13 +2390,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2429,6 +2446,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2436,6 +2456,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2797,10 +2820,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G101" sqref="G101"/>
+      <selection pane="bottomRight" activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3255,15 +3278,15 @@
       </c>
       <c r="K16" s="31">
         <f>L101/D3</f>
-        <v>13.227937156300545</v>
+        <v>12.509138929149074</v>
       </c>
       <c r="L16" s="31">
         <f>L101/D28</f>
-        <v>-41.042141073267381</v>
+        <v>-38.811935570067391</v>
       </c>
       <c r="M16" s="32">
         <f>L101/D106</f>
-        <v>-79.16707366806628</v>
+        <v>-74.865182033037485</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -4522,7 +4545,7 @@
       </c>
       <c r="L95" s="39" cm="1">
         <f t="array" ref="L95">_FV(A1,"Beta")</f>
-        <v>2.1160000000000001</v>
+        <v>2.085</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="20" x14ac:dyDescent="0.25">
@@ -4563,7 +4586,7 @@
       </c>
       <c r="L97" s="37">
         <f>(L94)+((L95)*(L96-L94))</f>
-        <v>0.13204380000000002</v>
+        <v>0.13070925</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -4644,7 +4667,7 @@
       </c>
       <c r="L101" s="40" cm="1">
         <f t="array" ref="L101">_FV(A1,"Market cap",TRUE)</f>
-        <v>3148712021</v>
+        <v>2977612885</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="20" x14ac:dyDescent="0.25">
@@ -4686,7 +4709,7 @@
       </c>
       <c r="L103" s="41">
         <f>L99+L101</f>
-        <v>3148712021</v>
+        <v>2977612885</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -4720,18 +4743,28 @@
         <f>(D106/C106)-1</f>
         <v>2.8125958588957056</v>
       </c>
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
+      <c r="E105" s="67">
+        <v>-36725000</v>
+      </c>
+      <c r="F105" s="67">
+        <v>12323000</v>
+      </c>
+      <c r="G105" s="67">
+        <v>63788000</v>
+      </c>
+      <c r="H105" s="67">
+        <v>218500000</v>
+      </c>
+      <c r="I105" s="67">
+        <v>263200000</v>
+      </c>
       <c r="J105" s="15"/>
       <c r="K105" s="26" t="s">
         <v>108</v>
       </c>
       <c r="L105" s="27">
         <f>(L100*L92)+(L102*L97)</f>
-        <v>0.13204380000000002</v>
+        <v>0.13070925</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -4764,7 +4797,7 @@
         <v>-169596033.38610804</v>
       </c>
       <c r="I106" s="42">
-        <f t="shared" si="6"/>
+        <f>H106*(1+$L$106)</f>
         <v>-243709537.5390591</v>
       </c>
       <c r="J106" s="43" t="s">
@@ -4787,9 +4820,9 @@
       <c r="F107" s="43"/>
       <c r="G107" s="43"/>
       <c r="H107" s="43"/>
-      <c r="I107" s="46">
-        <f>I106*(1+L107)/(L108-L107)</f>
-        <v>-2333645442.1230888</v>
+      <c r="I107" s="68">
+        <f>I105*(1+L107)/(L108-L107)</f>
+        <v>2552094542.3413749</v>
       </c>
       <c r="J107" s="47" t="s">
         <v>144</v>
@@ -4803,24 +4836,24 @@
     </row>
     <row r="108" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="E108" s="46">
-        <f t="shared" ref="E108:G108" si="7">E107+E106</f>
-        <v>-57153809.809180215</v>
+        <f>E107+E105</f>
+        <v>-36725000</v>
       </c>
       <c r="F108" s="46">
-        <f t="shared" si="7"/>
-        <v>-82130037.354585901</v>
+        <f>F107+F105</f>
+        <v>12323000</v>
       </c>
       <c r="G108" s="46">
-        <f t="shared" si="7"/>
-        <v>-118020881.86922961</v>
+        <f>G107+G105</f>
+        <v>63788000</v>
       </c>
       <c r="H108" s="46">
-        <f>H107+H106</f>
-        <v>-169596033.38610804</v>
-      </c>
-      <c r="I108" s="46">
-        <f>I107+I106</f>
-        <v>-2577354979.662148</v>
+        <f>H107+H105</f>
+        <v>218500000</v>
+      </c>
+      <c r="I108" s="68">
+        <f>I107+I105</f>
+        <v>2815294542.3413749</v>
       </c>
       <c r="J108" s="47" t="s">
         <v>140</v>
@@ -4830,7 +4863,7 @@
       </c>
       <c r="L108" s="51">
         <f>L105</f>
-        <v>0.13204380000000002</v>
+        <v>0.13070925</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -4845,7 +4878,7 @@
       </c>
       <c r="F110" s="40">
         <f>NPV(L108,E108,F108,G108,H108,I108)</f>
-        <v>-1685497320.9185476</v>
+        <v>1678201093.0962625</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="20" x14ac:dyDescent="0.25">
@@ -4872,7 +4905,7 @@
       </c>
       <c r="F113" s="40">
         <f>F110+F111-F112</f>
-        <v>-1171404320.9185476</v>
+        <v>2192294093.0962625</v>
       </c>
     </row>
     <row r="114" spans="5:6" ht="20" x14ac:dyDescent="0.25">
@@ -4881,7 +4914,7 @@
       </c>
       <c r="F114" s="53" cm="1">
         <f t="array" ref="F114">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>96232030</v>
+        <v>96864440</v>
       </c>
     </row>
     <row r="115" spans="5:6" ht="20" x14ac:dyDescent="0.25">
@@ -4890,7 +4923,7 @@
       </c>
       <c r="F115" s="55">
         <f>F113/F114</f>
-        <v>-12.172707163285942</v>
+        <v>22.632599673278062</v>
       </c>
     </row>
     <row r="116" spans="5:6" ht="20" x14ac:dyDescent="0.25">
@@ -4899,7 +4932,7 @@
       </c>
       <c r="F116" s="56" cm="1">
         <f t="array" ref="F116">_FV(A1,"Price")</f>
-        <v>32.72</v>
+        <v>30.74</v>
       </c>
     </row>
     <row r="117" spans="5:6" ht="20" x14ac:dyDescent="0.25">
@@ -4908,7 +4941,7 @@
       </c>
       <c r="F117" s="58">
         <f>F115/F116-1</f>
-        <v>-1.3720265025454139</v>
+        <v>-0.26374106462986135</v>
       </c>
     </row>
     <row r="118" spans="5:6" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Braze.xlsx
+++ b/Technology/Software/Braze.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69401411-26B5-DE4C-90D5-A2E672C542F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570CE99B-43E1-7645-B69C-E22DF78F1D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="163">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -551,18 +551,28 @@
   </si>
   <si>
     <t>Shares (No dilution)</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -725,7 +735,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -889,12 +899,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -952,12 +971,6 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1013,6 +1026,19 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1034,8 +1060,6 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2207,11 +2231,9 @@
     <v>Powered by Refinitiv</v>
     <v>50.97</v>
     <v>22.535</v>
-    <v>2.085</v>
-    <v>-0.81</v>
-    <v>-2.5674000000000002E-2</v>
-    <v>0.78900000000000003</v>
-    <v>2.5666999999999999E-2</v>
+    <v>2.117</v>
+    <v>0.9</v>
+    <v>2.2483E-2</v>
     <v>USD</v>
     <v>Braze, Inc. provides a customer engagement platform that enables customer-centric interactions between consumers and brands. Its platform enables brands to listen to their customers, understand them and act on that understanding in a way that is human and personal. Using its platform, brands ingest and process customer data in real-time, orchestrate and optimize contextually relevant, cross-channel marketing campaigns and continuously evolve their customer engagement strategies. It offers a single, vertically integrated platform that encompasses data ingestion, classification, orchestration, personalization and action. Braze SDKs are software libraries that reside within its customers’ applications or websites, automatically manage data ingestion and deliver mobile and Web notifications, in-application/in-browser interstitial messages, and content cards. Braze REST API can be used to import or export data or to trigger workflows between Braze and brands’ existing technology stacks.</v>
     <v>1501</v>
@@ -2219,24 +2241,23 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>330 West 34Th Street, Floor 18, New York City, NEW YORK, NY, 10001 US</v>
-    <v>32.119999999999997</v>
+    <v>41.39</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45071.848214282028</v>
+    <v>45099.959530404689</v>
     <v>0</v>
-    <v>30.48</v>
-    <v>2977612885</v>
+    <v>39.4</v>
+    <v>3994233863</v>
     <v>Braze, Inc.</v>
     <v>Braze, Inc.</v>
-    <v>32.1</v>
-    <v>31.55</v>
-    <v>30.74</v>
-    <v>31.529</v>
-    <v>96864440</v>
+    <v>40.03</v>
+    <v>40.03</v>
+    <v>40.93</v>
+    <v>97586950</v>
     <v>BRZE</v>
     <v>Braze, Inc. (XNAS:BRZE)</v>
-    <v>574112</v>
-    <v>710496</v>
+    <v>2</v>
+    <v>1169646</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2268,8 +2289,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2289,7 +2308,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2306,7 +2324,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2317,16 +2335,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2390,19 +2405,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2446,9 +2455,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2456,9 +2462,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2820,10 +2823,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F121" sqref="F121"/>
+      <selection pane="bottomRight" activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3276,17 +3279,17 @@
         <f>(D35+C35)/2</f>
         <v>-0.30667737895320996</v>
       </c>
-      <c r="K16" s="31">
+      <c r="K16" s="60">
         <f>L101/D3</f>
-        <v>12.509138929149074</v>
-      </c>
-      <c r="L16" s="31">
+        <v>16.780027571575609</v>
+      </c>
+      <c r="L16" s="60">
         <f>L101/D28</f>
-        <v>-38.811935570067391</v>
-      </c>
-      <c r="M16" s="32">
+        <v>-52.063163792541616</v>
+      </c>
+      <c r="M16" s="61">
         <f>L101/D106</f>
-        <v>-74.865182033037485</v>
+        <v>-100.42576277876951</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -3319,6 +3322,15 @@
       <c r="J18" s="19" t="s">
         <v>121</v>
       </c>
+      <c r="K18" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="19" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
@@ -3333,9 +3345,36 @@
       <c r="D19" s="10">
         <v>-73742000</v>
       </c>
-      <c r="J19" s="33">
+      <c r="E19" s="62">
+        <v>-51373000</v>
+      </c>
+      <c r="F19" s="62">
+        <v>-8153000</v>
+      </c>
+      <c r="G19" s="62">
+        <v>34442000</v>
+      </c>
+      <c r="H19" s="62">
+        <v>136300000</v>
+      </c>
+      <c r="I19" s="62">
+        <v>241300000</v>
+      </c>
+      <c r="J19" s="31">
         <f>D40-D56-D61</f>
         <v>514093000</v>
+      </c>
+      <c r="K19" s="60">
+        <f>L101/E3</f>
+        <v>9.1694992263544535</v>
+      </c>
+      <c r="L19" s="60">
+        <f>L101/E28</f>
+        <v>-73.856508995765608</v>
+      </c>
+      <c r="M19" s="61">
+        <f>L101/E105</f>
+        <v>-108.76062254594963</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3351,6 +3390,26 @@
         <f>(D19/C19)-1</f>
         <v>1.4890974144332683</v>
       </c>
+      <c r="E20" s="16">
+        <f t="shared" ref="E20:I20" si="3">(E19/D19)-1</f>
+        <v>-0.30334137940386752</v>
+      </c>
+      <c r="F20" s="16">
+        <f t="shared" si="3"/>
+        <v>-0.84129795807136043</v>
+      </c>
+      <c r="G20" s="16">
+        <f t="shared" si="3"/>
+        <v>-5.2244572549981605</v>
+      </c>
+      <c r="H20" s="16">
+        <f t="shared" si="3"/>
+        <v>2.9573776203472506</v>
+      </c>
+      <c r="I20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.77035950110051354</v>
+      </c>
     </row>
     <row r="21" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -3365,13 +3424,33 @@
       <c r="D21" s="2">
         <v>-0.30980000000000002</v>
       </c>
-      <c r="J21" s="64" t="str" cm="1">
+      <c r="E21" s="63">
+        <f>E19/E3</f>
+        <v>-0.11793617998163453</v>
+      </c>
+      <c r="F21" s="63">
+        <f t="shared" ref="F21:I21" si="4">F19/F3</f>
+        <v>-1.5287830489405588E-2</v>
+      </c>
+      <c r="G21" s="63">
+        <f t="shared" si="4"/>
+        <v>5.1428998058832311E-2</v>
+      </c>
+      <c r="H21" s="63">
+        <f t="shared" si="4"/>
+        <v>0.12679069767441861</v>
+      </c>
+      <c r="I21" s="63">
+        <f t="shared" si="4"/>
+        <v>0.17677655677655676</v>
+      </c>
+      <c r="J21" s="71" t="str" cm="1">
         <f t="array" ref="J21">_FV(A1,"Description")</f>
         <v>Braze, Inc. provides a customer engagement platform that enables customer-centric interactions between consumers and brands. Its platform enables brands to listen to their customers, understand them and act on that understanding in a way that is human and personal. Using its platform, brands ingest and process customer data in real-time, orchestrate and optimize contextually relevant, cross-channel marketing campaigns and continuously evolve their customer engagement strategies. It offers a single, vertically integrated platform that encompasses data ingestion, classification, orchestration, personalization and action. Braze SDKs are software libraries that reside within its customers’ applications or websites, automatically manage data ingestion and deliver mobile and Web notifications, in-application/in-browser interstitial messages, and content cards. Braze REST API can be used to import or export data or to trigger workflows between Braze and brands’ existing technology stacks.</v>
       </c>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
     </row>
     <row r="22" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -3386,10 +3465,10 @@
       <c r="D22" s="10">
         <v>-78211000</v>
       </c>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
     </row>
     <row r="23" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -3404,10 +3483,10 @@
       <c r="D23" s="2">
         <v>-0.3286</v>
       </c>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
     </row>
     <row r="24" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -3422,10 +3501,10 @@
       <c r="D24" s="1">
         <v>-121000</v>
       </c>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
     </row>
     <row r="25" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -3440,10 +3519,10 @@
       <c r="D25" s="10">
         <v>-78332000</v>
       </c>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
     </row>
     <row r="26" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -3458,10 +3537,10 @@
       <c r="D26" s="2">
         <v>-0.3291</v>
       </c>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
     </row>
     <row r="27" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -3476,10 +3555,10 @@
       <c r="D27" s="1">
         <v>-165000</v>
       </c>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
     </row>
     <row r="28" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -3494,10 +3573,25 @@
       <c r="D28" s="11">
         <v>-76719000</v>
       </c>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
+      <c r="E28" s="64">
+        <v>-54081000</v>
+      </c>
+      <c r="F28" s="64">
+        <v>-12013000</v>
+      </c>
+      <c r="G28" s="64">
+        <v>30400000</v>
+      </c>
+      <c r="H28" s="64">
+        <v>143000000</v>
+      </c>
+      <c r="I28" s="64">
+        <v>261100000</v>
+      </c>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
     </row>
     <row r="29" spans="1:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
@@ -3512,10 +3606,30 @@
         <f>(D28/C28)-1</f>
         <v>1.4161942554799696</v>
       </c>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
+      <c r="E29" s="16">
+        <f t="shared" ref="E29:I29" si="5">(E28/D28)-1</f>
+        <v>-0.29507683885347824</v>
+      </c>
+      <c r="F29" s="16">
+        <f t="shared" si="5"/>
+        <v>-0.77787023168950276</v>
+      </c>
+      <c r="G29" s="16">
+        <f t="shared" si="5"/>
+        <v>-3.5305918588196121</v>
+      </c>
+      <c r="H29" s="16">
+        <f t="shared" si="5"/>
+        <v>3.7039473684210522</v>
+      </c>
+      <c r="I29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.82587412587412579</v>
+      </c>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
     </row>
     <row r="30" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -3530,10 +3644,30 @@
       <c r="D30" s="2">
         <v>-0.32229999999999998</v>
       </c>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
+      <c r="E30" s="65">
+        <f>E28/E3</f>
+        <v>-0.12415289256198347</v>
+      </c>
+      <c r="F30" s="65">
+        <f t="shared" ref="F30:I30" si="6">F28/F3</f>
+        <v>-2.2525782861428839E-2</v>
+      </c>
+      <c r="G30" s="65">
+        <f t="shared" si="6"/>
+        <v>4.5393459758100642E-2</v>
+      </c>
+      <c r="H30" s="65">
+        <f t="shared" si="6"/>
+        <v>0.13302325581395349</v>
+      </c>
+      <c r="I30" s="65">
+        <f t="shared" si="6"/>
+        <v>0.19128205128205128</v>
+      </c>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
     </row>
     <row r="31" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -3548,10 +3682,25 @@
       <c r="D31" s="12">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="64"/>
+      <c r="E31" s="66">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="F31" s="66">
+        <v>-0.12</v>
+      </c>
+      <c r="G31" s="66">
+        <v>0.31</v>
+      </c>
+      <c r="H31" s="66">
+        <v>1.48</v>
+      </c>
+      <c r="I31" s="66">
+        <v>2.7</v>
+      </c>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
     </row>
     <row r="32" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -3566,10 +3715,10 @@
       <c r="D32" s="12">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
     </row>
     <row r="33" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -3584,10 +3733,10 @@
       <c r="D33" s="1">
         <v>34897000</v>
       </c>
-      <c r="J33" s="64"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="64"/>
-      <c r="M33" s="64"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
     </row>
     <row r="34" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -3602,10 +3751,10 @@
       <c r="D34" s="1">
         <v>34897000</v>
       </c>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="64"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
     </row>
     <row r="35" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
@@ -3617,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="23">
-        <f t="shared" ref="D35" si="3">(D34-C34)/C34</f>
+        <f t="shared" ref="D35" si="7">(D34-C34)/C34</f>
         <v>-0.61335475790641991</v>
       </c>
     </row>
@@ -4242,15 +4391,15 @@
         <v>104</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:D80" si="4">B79/B3</f>
+        <f t="shared" ref="B80:D80" si="8">B79/B3</f>
         <v>0.12876177825744053</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.0202741842054449E-2</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.1982061461549772</v>
       </c>
     </row>
@@ -4295,10 +4444,10 @@
       <c r="D83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K83" s="65" t="s">
+      <c r="K83" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="L83" s="66"/>
+      <c r="L83" s="73"/>
     </row>
     <row r="84" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4313,10 +4462,10 @@
       <c r="D84" s="1">
         <v>1649000</v>
       </c>
-      <c r="K84" s="60" t="s">
+      <c r="K84" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="L84" s="61"/>
+      <c r="L84" s="68"/>
     </row>
     <row r="85" spans="1:12" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4394,10 +4543,10 @@
       <c r="D88" s="1">
         <v>-2310000</v>
       </c>
-      <c r="K88" s="34" t="s">
+      <c r="K88" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L88" s="35" t="e">
+      <c r="L88" s="33" t="e">
         <f>L85/(L86+L87)</f>
         <v>#DIV/0!</v>
       </c>
@@ -4407,15 +4556,15 @@
         <v>105</v>
       </c>
       <c r="B89" s="15">
-        <f t="shared" ref="B89:D89" si="5">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:D89" si="9">(-1*B88)/B3</f>
         <v>1.7890498526420655E-2</v>
       </c>
       <c r="C89" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.6419093021552558E-2</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9.7044552271724743E-3</v>
       </c>
       <c r="K89" s="24" t="s">
@@ -4460,10 +4609,10 @@
       <c r="D91" s="1">
         <v>-36894000</v>
       </c>
-      <c r="K91" s="34" t="s">
+      <c r="K91" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="L91" s="35">
+      <c r="L91" s="33">
         <f>L89/L90</f>
         <v>2.1064188326609815E-3</v>
       </c>
@@ -4481,10 +4630,10 @@
       <c r="D92" s="1">
         <v>59309000</v>
       </c>
-      <c r="K92" s="36" t="s">
+      <c r="K92" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="L92" s="37">
+      <c r="L92" s="35">
         <f>0</f>
         <v>0</v>
       </c>
@@ -4502,10 +4651,10 @@
       <c r="D93" s="1">
         <v>-2065000</v>
       </c>
-      <c r="K93" s="60" t="s">
+      <c r="K93" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="L93" s="61"/>
+      <c r="L93" s="68"/>
     </row>
     <row r="94" spans="1:12" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -4523,7 +4672,7 @@
       <c r="K94" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="L94" s="38">
+      <c r="L94" s="36">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -4543,9 +4692,9 @@
       <c r="K95" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="L95" s="39" cm="1">
+      <c r="L95" s="37" cm="1">
         <f t="array" ref="L95">_FV(A1,"Beta")</f>
-        <v>2.085</v>
+        <v>2.117</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="20" x14ac:dyDescent="0.25">
@@ -4564,7 +4713,7 @@
       <c r="K96" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="L96" s="38">
+      <c r="L96" s="36">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -4581,12 +4730,12 @@
       <c r="D97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K97" s="36" t="s">
+      <c r="K97" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="L97" s="37">
+      <c r="L97" s="35">
         <f>(L94)+((L95)*(L96-L94))</f>
-        <v>0.13070925</v>
+        <v>0.13208685000000001</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -4602,10 +4751,10 @@
       <c r="D98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K98" s="60" t="s">
+      <c r="K98" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="L98" s="61"/>
+      <c r="L98" s="68"/>
     </row>
     <row r="99" spans="1:12" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -4641,10 +4790,10 @@
       <c r="D100" s="10">
         <v>467910000</v>
       </c>
-      <c r="K100" s="34" t="s">
+      <c r="K100" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="L100" s="35">
+      <c r="L100" s="33">
         <f>L99/L103</f>
         <v>0</v>
       </c>
@@ -4665,9 +4814,9 @@
       <c r="K101" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="L101" s="40" cm="1">
+      <c r="L101" s="38" cm="1">
         <f t="array" ref="L101">_FV(A1,"Market cap",TRUE)</f>
-        <v>2977612885</v>
+        <v>3994233863</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="20" x14ac:dyDescent="0.25">
@@ -4683,10 +4832,10 @@
       <c r="D102" s="10">
         <v>449955000</v>
       </c>
-      <c r="K102" s="34" t="s">
+      <c r="K102" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="L102" s="35">
+      <c r="L102" s="33">
         <f>L101/L103</f>
         <v>1</v>
       </c>
@@ -4704,12 +4853,12 @@
       <c r="D103" s="1">
         <v>33018000</v>
       </c>
-      <c r="K103" s="36" t="s">
+      <c r="K103" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="L103" s="41">
+      <c r="L103" s="39">
         <f>L99+L101</f>
-        <v>2977612885</v>
+        <v>3994233863</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -4725,10 +4874,10 @@
       <c r="D104" s="11">
         <v>482973000</v>
       </c>
-      <c r="K104" s="60" t="s">
+      <c r="K104" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="L104" s="61"/>
+      <c r="L104" s="68"/>
     </row>
     <row r="105" spans="1:12" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -4743,19 +4892,19 @@
         <f>(D106/C106)-1</f>
         <v>2.8125958588957056</v>
       </c>
-      <c r="E105" s="67">
+      <c r="E105" s="58">
         <v>-36725000</v>
       </c>
-      <c r="F105" s="67">
+      <c r="F105" s="58">
         <v>12323000</v>
       </c>
-      <c r="G105" s="67">
+      <c r="G105" s="58">
         <v>63788000</v>
       </c>
-      <c r="H105" s="67">
+      <c r="H105" s="58">
         <v>218500000</v>
       </c>
-      <c r="I105" s="67">
+      <c r="I105" s="58">
         <v>263200000</v>
       </c>
       <c r="J105" s="15"/>
@@ -4764,7 +4913,7 @@
       </c>
       <c r="L105" s="27">
         <f>(L100*L92)+(L102*L97)</f>
-        <v>0.13070925</v>
+        <v>0.13208685000000001</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -4780,33 +4929,33 @@
       <c r="D106" s="1">
         <v>-39773000</v>
       </c>
-      <c r="E106" s="42">
+      <c r="E106" s="40">
         <f>D106*(1+$L$106)</f>
         <v>-57153809.809180215</v>
       </c>
-      <c r="F106" s="42">
-        <f t="shared" ref="F106:I106" si="6">E106*(1+$L$106)</f>
+      <c r="F106" s="40">
+        <f t="shared" ref="F106:H106" si="10">E106*(1+$L$106)</f>
         <v>-82130037.354585901</v>
       </c>
-      <c r="G106" s="42">
-        <f t="shared" si="6"/>
+      <c r="G106" s="40">
+        <f t="shared" si="10"/>
         <v>-118020881.86922961</v>
       </c>
-      <c r="H106" s="42">
-        <f t="shared" si="6"/>
+      <c r="H106" s="40">
+        <f t="shared" si="10"/>
         <v>-169596033.38610804</v>
       </c>
-      <c r="I106" s="42">
+      <c r="I106" s="40">
         <f>H106*(1+$L$106)</f>
         <v>-243709537.5390591</v>
       </c>
-      <c r="J106" s="43" t="s">
+      <c r="J106" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="K106" s="44" t="s">
+      <c r="K106" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="L106" s="45">
+      <c r="L106" s="43">
         <f>(SUM(E4:I4)/5)</f>
         <v>0.43700022148644113</v>
       </c>
@@ -4816,139 +4965,139 @@
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
-      <c r="E107" s="43"/>
-      <c r="F107" s="43"/>
-      <c r="G107" s="43"/>
-      <c r="H107" s="43"/>
-      <c r="I107" s="68">
+      <c r="E107" s="41"/>
+      <c r="F107" s="41"/>
+      <c r="G107" s="41"/>
+      <c r="H107" s="41"/>
+      <c r="I107" s="59">
         <f>I105*(1+L107)/(L108-L107)</f>
-        <v>2552094542.3413749</v>
-      </c>
-      <c r="J107" s="47" t="s">
+        <v>2519263569.7100062</v>
+      </c>
+      <c r="J107" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="K107" s="48" t="s">
+      <c r="K107" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="L107" s="49">
+      <c r="L107" s="47">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="E108" s="46">
+      <c r="E108" s="44">
         <f>E107+E105</f>
         <v>-36725000</v>
       </c>
-      <c r="F108" s="46">
+      <c r="F108" s="44">
         <f>F107+F105</f>
         <v>12323000</v>
       </c>
-      <c r="G108" s="46">
+      <c r="G108" s="44">
         <f>G107+G105</f>
         <v>63788000</v>
       </c>
-      <c r="H108" s="46">
+      <c r="H108" s="44">
         <f>H107+H105</f>
         <v>218500000</v>
       </c>
-      <c r="I108" s="68">
+      <c r="I108" s="59">
         <f>I107+I105</f>
-        <v>2815294542.3413749</v>
-      </c>
-      <c r="J108" s="47" t="s">
+        <v>2782463569.7100062</v>
+      </c>
+      <c r="J108" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="K108" s="50" t="s">
+      <c r="K108" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="L108" s="51">
+      <c r="L108" s="49">
         <f>L105</f>
-        <v>0.13070925</v>
+        <v>0.13208685000000001</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="E109" s="62" t="s">
+      <c r="E109" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="F109" s="63"/>
+      <c r="F109" s="70"/>
     </row>
     <row r="110" spans="1:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="E110" s="52" t="s">
+      <c r="E110" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="F110" s="40">
+      <c r="F110" s="38">
         <f>NPV(L108,E108,F108,G108,H108,I108)</f>
-        <v>1678201093.0962625</v>
+        <v>1650505716.8610442</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="E111" s="52" t="s">
+      <c r="E111" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="F111" s="40">
+      <c r="F111" s="38">
         <f>D40</f>
         <v>514093000</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="E112" s="52" t="s">
+      <c r="E112" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="F112" s="40">
+      <c r="F112" s="38">
         <f>L99</f>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="5:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="E113" s="52" t="s">
+      <c r="E113" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="F113" s="40">
+      <c r="F113" s="38">
         <f>F110+F111-F112</f>
-        <v>2192294093.0962625</v>
+        <v>2164598716.8610439</v>
       </c>
     </row>
     <row r="114" spans="5:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="E114" s="52" t="s">
+      <c r="E114" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="F114" s="53" cm="1">
+      <c r="F114" s="51" cm="1">
         <f t="array" ref="F114">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>96864440</v>
+        <v>97586950</v>
       </c>
     </row>
     <row r="115" spans="5:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="E115" s="54" t="s">
+      <c r="E115" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="F115" s="55">
+      <c r="F115" s="53">
         <f>F113/F114</f>
-        <v>22.632599673278062</v>
+        <v>22.181231372238233</v>
       </c>
     </row>
     <row r="116" spans="5:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="E116" s="52" t="s">
+      <c r="E116" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="F116" s="56" cm="1">
+      <c r="F116" s="54" cm="1">
         <f t="array" ref="F116">_FV(A1,"Price")</f>
-        <v>30.74</v>
+        <v>40.93</v>
       </c>
     </row>
     <row r="117" spans="5:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="E117" s="57" t="s">
+      <c r="E117" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="F117" s="58">
+      <c r="F117" s="56">
         <f>F115/F116-1</f>
-        <v>-0.26374106462986135</v>
+        <v>-0.45806910891184383</v>
       </c>
     </row>
     <row r="118" spans="5:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="E118" s="57" t="s">
+      <c r="E118" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="F118" s="59" t="str">
+      <c r="F118" s="57" t="str">
         <f>IF(F115&gt;F116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Software/Braze.xlsx
+++ b/Technology/Software/Braze.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570CE99B-43E1-7645-B69C-E22DF78F1D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1887E6-6077-DD4D-B5D9-10843D61A7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2231,9 +2231,9 @@
     <v>Powered by Refinitiv</v>
     <v>50.97</v>
     <v>22.535</v>
-    <v>2.117</v>
-    <v>0.9</v>
-    <v>2.2483E-2</v>
+    <v>2.125</v>
+    <v>2.1949999999999998</v>
+    <v>5.3251E-2</v>
     <v>USD</v>
     <v>Braze, Inc. provides a customer engagement platform that enables customer-centric interactions between consumers and brands. Its platform enables brands to listen to their customers, understand them and act on that understanding in a way that is human and personal. Using its platform, brands ingest and process customer data in real-time, orchestrate and optimize contextually relevant, cross-channel marketing campaigns and continuously evolve their customer engagement strategies. It offers a single, vertically integrated platform that encompasses data ingestion, classification, orchestration, personalization and action. Braze SDKs are software libraries that reside within its customers’ applications or websites, automatically manage data ingestion and deliver mobile and Web notifications, in-application/in-browser interstitial messages, and content cards. Braze REST API can be used to import or export data or to trigger workflows between Braze and brands’ existing technology stacks.</v>
     <v>1501</v>
@@ -2241,23 +2241,23 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>330 West 34Th Street, Floor 18, New York City, NEW YORK, NY, 10001 US</v>
-    <v>41.39</v>
+    <v>43.817999999999998</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.959530404689</v>
+    <v>45105.994840010935</v>
     <v>0</v>
-    <v>39.4</v>
-    <v>3994233863</v>
+    <v>40.79</v>
+    <v>4236737434</v>
     <v>Braze, Inc.</v>
     <v>Braze, Inc.</v>
-    <v>40.03</v>
-    <v>40.03</v>
-    <v>40.93</v>
+    <v>40.79</v>
+    <v>41.22</v>
+    <v>43.414999999999999</v>
     <v>97586950</v>
     <v>BRZE</v>
     <v>Braze, Inc. (XNAS:BRZE)</v>
-    <v>2</v>
-    <v>1169646</v>
+    <v>1840627</v>
+    <v>1259702</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2826,7 +2826,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E97" sqref="E97"/>
+      <selection pane="bottomRight" activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3281,15 +3281,15 @@
       </c>
       <c r="K16" s="60">
         <f>L101/D3</f>
-        <v>16.780027571575609</v>
+        <v>17.79880031928078</v>
       </c>
       <c r="L16" s="60">
         <f>L101/D28</f>
-        <v>-52.063163792541616</v>
+        <v>-55.224096169136722</v>
       </c>
       <c r="M16" s="61">
         <f>L101/D106</f>
-        <v>-100.42576277876951</v>
+        <v>-106.52295361174666</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -3366,15 +3366,15 @@
       </c>
       <c r="K19" s="60">
         <f>L101/E3</f>
-        <v>9.1694992263544535</v>
+        <v>9.726210821854913</v>
       </c>
       <c r="L19" s="60">
         <f>L101/E28</f>
-        <v>-73.856508995765608</v>
+        <v>-78.34058974501211</v>
       </c>
       <c r="M19" s="61">
         <f>L101/E105</f>
-        <v>-108.76062254594963</v>
+        <v>-115.36385116405718</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4694,7 +4694,7 @@
       </c>
       <c r="L95" s="37" cm="1">
         <f t="array" ref="L95">_FV(A1,"Beta")</f>
-        <v>2.117</v>
+        <v>2.125</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="20" x14ac:dyDescent="0.25">
@@ -4735,7 +4735,7 @@
       </c>
       <c r="L97" s="35">
         <f>(L94)+((L95)*(L96-L94))</f>
-        <v>0.13208685000000001</v>
+        <v>0.13243125</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -4816,7 +4816,7 @@
       </c>
       <c r="L101" s="38" cm="1">
         <f t="array" ref="L101">_FV(A1,"Market cap",TRUE)</f>
-        <v>3994233863</v>
+        <v>4236737434</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="20" x14ac:dyDescent="0.25">
@@ -4858,7 +4858,7 @@
       </c>
       <c r="L103" s="39">
         <f>L99+L101</f>
-        <v>3994233863</v>
+        <v>4236737434</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="L105" s="27">
         <f>(L100*L92)+(L102*L97)</f>
-        <v>0.13208685000000001</v>
+        <v>0.13243125</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -4971,7 +4971,7 @@
       <c r="H107" s="41"/>
       <c r="I107" s="59">
         <f>I105*(1+L107)/(L108-L107)</f>
-        <v>2519263569.7100062</v>
+        <v>2511187387.2825642</v>
       </c>
       <c r="J107" s="45" t="s">
         <v>144</v>
@@ -5002,7 +5002,7 @@
       </c>
       <c r="I108" s="59">
         <f>I107+I105</f>
-        <v>2782463569.7100062</v>
+        <v>2774387387.2825642</v>
       </c>
       <c r="J108" s="45" t="s">
         <v>140</v>
@@ -5012,7 +5012,7 @@
       </c>
       <c r="L108" s="49">
         <f>L105</f>
-        <v>0.13208685000000001</v>
+        <v>0.13243125</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -5027,7 +5027,7 @@
       </c>
       <c r="F110" s="38">
         <f>NPV(L108,E108,F108,G108,H108,I108)</f>
-        <v>1650505716.8610442</v>
+        <v>1643697323.1352441</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="20" x14ac:dyDescent="0.25">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="F113" s="38">
         <f>F110+F111-F112</f>
-        <v>2164598716.8610439</v>
+        <v>2157790323.1352444</v>
       </c>
     </row>
     <row r="114" spans="5:6" ht="20" x14ac:dyDescent="0.25">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="F115" s="53">
         <f>F113/F114</f>
-        <v>22.181231372238233</v>
+        <v>22.111463911263179</v>
       </c>
     </row>
     <row r="116" spans="5:6" ht="20" x14ac:dyDescent="0.25">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F116" s="54" cm="1">
         <f t="array" ref="F116">_FV(A1,"Price")</f>
-        <v>40.93</v>
+        <v>43.414999999999999</v>
       </c>
     </row>
     <row r="117" spans="5:6" ht="20" x14ac:dyDescent="0.25">
@@ -5090,7 +5090,7 @@
       </c>
       <c r="F117" s="56">
         <f>F115/F116-1</f>
-        <v>-0.45806910891184383</v>
+        <v>-0.49069529169035631</v>
       </c>
     </row>
     <row r="118" spans="5:6" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Braze.xlsx
+++ b/Technology/Software/Braze.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1887E6-6077-DD4D-B5D9-10843D61A7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDFCD04-AEFC-DD40-A86D-10A5EDF72457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -71,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -343,9 +346,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -394,9 +394,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -499,9 +496,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -560,19 +554,41 @@
   </si>
   <si>
     <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -735,7 +751,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -841,62 +857,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -913,7 +876,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -958,106 +921,95 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1110,7 +1062,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>BRZE</a:t>
+              <a:t>Braze</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1149,10 +1101,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.3556239244928828E-2"/>
-          <c:y val="0.11534377048533972"/>
-          <c:w val="0.89273515148354798"/>
-          <c:h val="0.80540442643628141"/>
+          <c:x val="8.7542236324936989E-2"/>
+          <c:y val="0.15908042156704305"/>
+          <c:w val="0.83683587312779928"/>
+          <c:h val="0.67675582632771358"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1206,6 +1158,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$D$3</c:f>
@@ -1226,7 +1196,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BD8A-DE49-8D14-3B1E378C490E}"/>
+              <c16:uniqueId val="{00000000-8FB2-2A45-9AF5-5BE3B51370A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1235,11 +1205,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1277,27 +1247,45 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$D$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-30713000</c:v>
+                  <c:v>-31810000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-29626000</c:v>
+                  <c:v>-31752000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-73742000</c:v>
+                  <c:v>-76719000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BD8A-DE49-8D14-3B1E378C490E}"/>
+              <c16:uniqueId val="{00000001-8FB2-2A45-9AF5-5BE3B51370A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1306,11 +1294,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1348,9 +1336,27 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$D$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$D$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1368,7 +1374,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BD8A-DE49-8D14-3B1E378C490E}"/>
+              <c16:uniqueId val="{00000002-8FB2-2A45-9AF5-5BE3B51370A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1382,11 +1388,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1442133808"/>
-        <c:axId val="1442038064"/>
+        <c:axId val="8078848"/>
+        <c:axId val="8080576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1442133808"/>
+        <c:axId val="8078848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1414,7 +1420,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1426,7 +1432,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1442038064"/>
+        <c:crossAx val="8080576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1434,7 +1440,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1442038064"/>
+        <c:axId val="8080576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1470,7 +1476,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1482,7 +1488,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1442133808"/>
+        <c:crossAx val="8078848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1496,6 +1502,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34258941512907903"/>
+          <c:y val="0.87898827365470245"/>
+          <c:w val="0.31482106527728809"/>
+          <c:h val="6.6150888394912649E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1509,7 +1525,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -2073,22 +2089,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:colOff>31749</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>17463</xdr:rowOff>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1587499</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BB9C195-210A-745C-D31A-ECA86DD1C921}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2085BAE4-D5C4-6A2B-FCCF-AA090406F0AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2107,6 +2123,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2823,10 +2893,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G90" sqref="G90"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2849,19 +2919,19 @@
       <c r="D1" s="8">
         <v>2022</v>
       </c>
-      <c r="E1" s="28">
+      <c r="E1" s="24">
         <v>2023</v>
       </c>
-      <c r="F1" s="28">
+      <c r="F1" s="24">
         <v>2024</v>
       </c>
-      <c r="G1" s="28">
+      <c r="G1" s="24">
         <v>2025</v>
       </c>
-      <c r="H1" s="28">
+      <c r="H1" s="24">
         <v>2026</v>
       </c>
-      <c r="I1" s="28">
+      <c r="I1" s="24">
         <v>2027</v>
       </c>
     </row>
@@ -2870,22 +2940,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -2907,37 +2977,37 @@
       <c r="D3" s="1">
         <v>238035000</v>
       </c>
-      <c r="E3" s="29">
-        <v>435600000</v>
-      </c>
-      <c r="F3" s="29">
-        <v>533300000</v>
-      </c>
-      <c r="G3" s="29">
-        <v>669700000</v>
-      </c>
-      <c r="H3" s="29">
+      <c r="E3" s="25">
+        <v>445000000</v>
+      </c>
+      <c r="F3" s="25">
+        <v>545300000</v>
+      </c>
+      <c r="G3" s="25">
+        <v>670000000</v>
+      </c>
+      <c r="H3" s="25">
         <v>1075000000</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="25">
         <v>1365000000</v>
       </c>
       <c r="J3" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="M3" s="20" t="s">
         <v>155</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -2950,19 +3020,19 @@
       </c>
       <c r="E4" s="16">
         <f t="shared" ref="E4:I4" si="0">(E3/D3)-1</f>
-        <v>0.82998298569538087</v>
+        <v>0.86947297666309575</v>
       </c>
       <c r="F4" s="16">
         <f t="shared" si="0"/>
-        <v>0.2242883379247016</v>
+        <v>0.22539325842696623</v>
       </c>
       <c r="G4" s="16">
         <f t="shared" si="0"/>
-        <v>0.2557659853740859</v>
+        <v>0.22868145974692822</v>
       </c>
       <c r="H4" s="16">
         <f t="shared" si="0"/>
-        <v>0.60519635657757198</v>
+        <v>0.60447761194029859</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" si="0"/>
@@ -2981,7 +3051,7 @@
         <v>0.70718546474092792</v>
       </c>
       <c r="M4" s="17">
-        <f>(D105+C105)/2</f>
+        <f>(D106+C106)/2</f>
         <v>1.4321573910871308</v>
       </c>
       <c r="T4" s="16"/>
@@ -3030,16 +3100,16 @@
         <v>159524000</v>
       </c>
       <c r="J6" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="L6" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="M6" s="20" t="s">
         <v>110</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3068,7 +3138,7 @@
         <v>-0.32229999999999998</v>
       </c>
       <c r="M7" s="21">
-        <f>D106/D3</f>
+        <f>D107/D3</f>
         <v>-0.16708887348499171</v>
       </c>
     </row>
@@ -3088,7 +3158,7 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3105,16 +3175,16 @@
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="J9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="L9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="M9" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="M9" s="20" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3175,21 +3245,21 @@
         <v>178701000</v>
       </c>
       <c r="J12" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="M12" s="20" t="s">
         <v>114</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3227,13 +3297,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -3250,16 +3320,16 @@
         <v>237735000</v>
       </c>
       <c r="J15" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="L15" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="M15" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3275,20 +3345,20 @@
       <c r="D16" s="1">
         <v>316246000</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="26">
         <f>(D35+C35)/2</f>
         <v>-0.30667737895320996</v>
       </c>
-      <c r="K16" s="60">
+      <c r="K16" s="33">
         <f>L101/D3</f>
         <v>17.79880031928078</v>
       </c>
-      <c r="L16" s="60">
+      <c r="L16" s="33">
         <f>L101/D28</f>
         <v>-55.224096169136722</v>
       </c>
-      <c r="M16" s="61">
-        <f>L101/D106</f>
+      <c r="M16" s="34">
+        <f>L101/D107</f>
         <v>-106.52295361174666</v>
       </c>
     </row>
@@ -3297,10 +3367,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1">
         <v>369000</v>
@@ -3320,16 +3390,16 @@
         <v>2773000</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -3345,41 +3415,41 @@
       <c r="D19" s="10">
         <v>-73742000</v>
       </c>
-      <c r="E19" s="62">
-        <v>-51373000</v>
-      </c>
-      <c r="F19" s="62">
-        <v>-8153000</v>
-      </c>
-      <c r="G19" s="62">
-        <v>34442000</v>
-      </c>
-      <c r="H19" s="62">
-        <v>136300000</v>
-      </c>
-      <c r="I19" s="62">
-        <v>241300000</v>
-      </c>
-      <c r="J19" s="31">
+      <c r="E19" s="35">
+        <v>-46000000</v>
+      </c>
+      <c r="F19" s="35">
+        <v>-7000000</v>
+      </c>
+      <c r="G19" s="35">
+        <v>38000000</v>
+      </c>
+      <c r="H19" s="35">
+        <v>142000000</v>
+      </c>
+      <c r="I19" s="35">
+        <v>248000000</v>
+      </c>
+      <c r="J19" s="27">
         <f>D40-D56-D61</f>
         <v>514093000</v>
       </c>
-      <c r="K19" s="60">
+      <c r="K19" s="33">
         <f>L101/E3</f>
-        <v>9.726210821854913</v>
-      </c>
-      <c r="L19" s="60">
+        <v>9.5207582786516856</v>
+      </c>
+      <c r="L19" s="33">
         <f>L101/E28</f>
-        <v>-78.34058974501211</v>
-      </c>
-      <c r="M19" s="61">
+        <v>-84.734748679999996</v>
+      </c>
+      <c r="M19" s="34">
         <f>L101/E105</f>
-        <v>-115.36385116405718</v>
+        <v>-33.534111016624401</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3392,23 +3462,23 @@
       </c>
       <c r="E20" s="16">
         <f t="shared" ref="E20:I20" si="3">(E19/D19)-1</f>
-        <v>-0.30334137940386752</v>
+        <v>-0.37620352038187188</v>
       </c>
       <c r="F20" s="16">
         <f t="shared" si="3"/>
-        <v>-0.84129795807136043</v>
+        <v>-0.84782608695652173</v>
       </c>
       <c r="G20" s="16">
         <f t="shared" si="3"/>
-        <v>-5.2244572549981605</v>
+        <v>-6.4285714285714288</v>
       </c>
       <c r="H20" s="16">
         <f t="shared" si="3"/>
-        <v>2.9573776203472506</v>
+        <v>2.736842105263158</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" si="3"/>
-        <v>0.77035950110051354</v>
+        <v>0.74647887323943651</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3424,33 +3494,34 @@
       <c r="D21" s="2">
         <v>-0.30980000000000002</v>
       </c>
-      <c r="E21" s="63">
+      <c r="E21" s="36">
         <f>E19/E3</f>
-        <v>-0.11793617998163453</v>
-      </c>
-      <c r="F21" s="63">
+        <v>-0.10337078651685393</v>
+      </c>
+      <c r="F21" s="36">
         <f t="shared" ref="F21:I21" si="4">F19/F3</f>
-        <v>-1.5287830489405588E-2</v>
-      </c>
-      <c r="G21" s="63">
+        <v>-1.2836970474967908E-2</v>
+      </c>
+      <c r="G21" s="36">
         <f t="shared" si="4"/>
-        <v>5.1428998058832311E-2</v>
-      </c>
-      <c r="H21" s="63">
+        <v>5.6716417910447764E-2</v>
+      </c>
+      <c r="H21" s="36">
         <f t="shared" si="4"/>
-        <v>0.12679069767441861</v>
-      </c>
-      <c r="I21" s="63">
+        <v>0.13209302325581396</v>
+      </c>
+      <c r="I21" s="36">
         <f t="shared" si="4"/>
-        <v>0.17677655677655676</v>
-      </c>
-      <c r="J21" s="71" t="str" cm="1">
-        <f t="array" ref="J21">_FV(A1,"Description")</f>
-        <v>Braze, Inc. provides a customer engagement platform that enables customer-centric interactions between consumers and brands. Its platform enables brands to listen to their customers, understand them and act on that understanding in a way that is human and personal. Using its platform, brands ingest and process customer data in real-time, orchestrate and optimize contextually relevant, cross-channel marketing campaigns and continuously evolve their customer engagement strategies. It offers a single, vertically integrated platform that encompasses data ingestion, classification, orchestration, personalization and action. Braze SDKs are software libraries that reside within its customers’ applications or websites, automatically manage data ingestion and deliver mobile and Web notifications, in-application/in-browser interstitial messages, and content cards. Braze REST API can be used to import or export data or to trigger workflows between Braze and brands’ existing technology stacks.</v>
-      </c>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
+        <v>0.18168498168498168</v>
+      </c>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="22" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -3465,10 +3536,16 @@
       <c r="D22" s="10">
         <v>-78211000</v>
       </c>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="41">
+        <f>(-1*D98)/L101</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="42">
+        <f>D107/L101</f>
+        <v>-9.3876480710888451E-3</v>
+      </c>
     </row>
     <row r="23" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -3483,10 +3560,10 @@
       <c r="D23" s="2">
         <v>-0.3286</v>
       </c>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
     </row>
     <row r="24" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -3501,10 +3578,10 @@
       <c r="D24" s="1">
         <v>-121000</v>
       </c>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
     </row>
     <row r="25" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -3519,10 +3596,10 @@
       <c r="D25" s="10">
         <v>-78332000</v>
       </c>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
     </row>
     <row r="26" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -3537,10 +3614,10 @@
       <c r="D26" s="2">
         <v>-0.3291</v>
       </c>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
     </row>
     <row r="27" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -3555,10 +3632,10 @@
       <c r="D27" s="1">
         <v>-165000</v>
       </c>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
     </row>
     <row r="28" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -3573,29 +3650,29 @@
       <c r="D28" s="11">
         <v>-76719000</v>
       </c>
-      <c r="E28" s="64">
-        <v>-54081000</v>
-      </c>
-      <c r="F28" s="64">
-        <v>-12013000</v>
-      </c>
-      <c r="G28" s="64">
-        <v>30400000</v>
-      </c>
-      <c r="H28" s="64">
-        <v>143000000</v>
-      </c>
-      <c r="I28" s="64">
-        <v>261100000</v>
-      </c>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
+      <c r="E28" s="37">
+        <v>-50000000</v>
+      </c>
+      <c r="F28" s="37">
+        <v>-13000000</v>
+      </c>
+      <c r="G28" s="37">
+        <v>28460000</v>
+      </c>
+      <c r="H28" s="37">
+        <v>144300000</v>
+      </c>
+      <c r="I28" s="37">
+        <v>267000000</v>
+      </c>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
     </row>
     <row r="29" spans="1:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -3608,28 +3685,28 @@
       </c>
       <c r="E29" s="16">
         <f t="shared" ref="E29:I29" si="5">(E28/D28)-1</f>
-        <v>-0.29507683885347824</v>
+        <v>-0.34827096286447945</v>
       </c>
       <c r="F29" s="16">
         <f t="shared" si="5"/>
-        <v>-0.77787023168950276</v>
+        <v>-0.74</v>
       </c>
       <c r="G29" s="16">
         <f t="shared" si="5"/>
-        <v>-3.5305918588196121</v>
+        <v>-3.1892307692307691</v>
       </c>
       <c r="H29" s="16">
         <f t="shared" si="5"/>
-        <v>3.7039473684210522</v>
+        <v>4.0702740688685877</v>
       </c>
       <c r="I29" s="16">
         <f t="shared" si="5"/>
-        <v>0.82587412587412579</v>
-      </c>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
+        <v>0.8503118503118503</v>
+      </c>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
     </row>
     <row r="30" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -3644,30 +3721,30 @@
       <c r="D30" s="2">
         <v>-0.32229999999999998</v>
       </c>
-      <c r="E30" s="65">
+      <c r="E30" s="38">
         <f>E28/E3</f>
-        <v>-0.12415289256198347</v>
-      </c>
-      <c r="F30" s="65">
+        <v>-0.11235955056179775</v>
+      </c>
+      <c r="F30" s="38">
         <f t="shared" ref="F30:I30" si="6">F28/F3</f>
-        <v>-2.2525782861428839E-2</v>
-      </c>
-      <c r="G30" s="65">
+        <v>-2.3840088024940399E-2</v>
+      </c>
+      <c r="G30" s="38">
         <f t="shared" si="6"/>
-        <v>4.5393459758100642E-2</v>
-      </c>
-      <c r="H30" s="65">
+        <v>4.2477611940298504E-2</v>
+      </c>
+      <c r="H30" s="38">
         <f t="shared" si="6"/>
-        <v>0.13302325581395349</v>
-      </c>
-      <c r="I30" s="65">
+        <v>0.13423255813953489</v>
+      </c>
+      <c r="I30" s="38">
         <f t="shared" si="6"/>
-        <v>0.19128205128205128</v>
-      </c>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
+        <v>0.1956043956043956</v>
+      </c>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
     </row>
     <row r="31" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -3682,25 +3759,25 @@
       <c r="D31" s="12">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="E31" s="66">
-        <v>-0.56000000000000005</v>
-      </c>
-      <c r="F31" s="66">
-        <v>-0.12</v>
-      </c>
-      <c r="G31" s="66">
-        <v>0.31</v>
-      </c>
-      <c r="H31" s="66">
+      <c r="E31" s="39">
+        <v>-0.51</v>
+      </c>
+      <c r="F31" s="39">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="G31" s="39">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H31" s="39">
         <v>1.48</v>
       </c>
-      <c r="I31" s="66">
-        <v>2.7</v>
-      </c>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
+      <c r="I31" s="39">
+        <v>2.73</v>
+      </c>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
     </row>
     <row r="32" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -3715,10 +3792,10 @@
       <c r="D32" s="12">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
     </row>
     <row r="33" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -3733,10 +3810,10 @@
       <c r="D33" s="1">
         <v>34897000</v>
       </c>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
     </row>
     <row r="34" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -3751,14 +3828,14 @@
       <c r="D34" s="1">
         <v>34897000</v>
       </c>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
     </row>
     <row r="35" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="23">
@@ -3775,13 +3852,13 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="21" x14ac:dyDescent="0.25">
@@ -3789,13 +3866,13 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -3859,13 +3936,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -3915,13 +3992,13 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -3929,13 +4006,13 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -3943,13 +4020,13 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -3957,13 +4034,13 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -3971,13 +4048,13 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -4013,13 +4090,13 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -4055,10 +4132,10 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
@@ -4069,13 +4146,13 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -4125,10 +4202,10 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -4139,13 +4216,13 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -4159,7 +4236,7 @@
         <v>80000</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -4195,13 +4272,13 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -4223,10 +4300,10 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1">
         <v>9000</v>
@@ -4307,13 +4384,13 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -4321,13 +4398,13 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -4388,7 +4465,7 @@
     </row>
     <row r="80" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15">
         <f t="shared" ref="B80:D80" si="8">B79/B3</f>
@@ -4436,18 +4513,18 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K83" s="72" t="s">
-        <v>122</v>
-      </c>
-      <c r="L83" s="73"/>
+        <v>91</v>
+      </c>
+      <c r="K83" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="L83" s="68"/>
     </row>
     <row r="84" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4462,10 +4539,10 @@
       <c r="D84" s="1">
         <v>1649000</v>
       </c>
-      <c r="K84" s="67" t="s">
-        <v>123</v>
-      </c>
-      <c r="L84" s="68"/>
+      <c r="K84" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="L84" s="65"/>
     </row>
     <row r="85" spans="1:12" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4480,10 +4557,10 @@
       <c r="D85" s="1">
         <v>19504000</v>
       </c>
-      <c r="K85" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="L85" s="25">
+      <c r="K85" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="L85" s="44">
         <f>D17</f>
         <v>369000</v>
       </c>
@@ -4501,10 +4578,10 @@
       <c r="D86" s="1">
         <v>17106000</v>
       </c>
-      <c r="K86" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="L86" s="25">
+      <c r="K86" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="L86" s="44">
         <f>D56</f>
         <v>0</v>
       </c>
@@ -4522,10 +4599,10 @@
       <c r="D87" s="10">
         <v>-35398000</v>
       </c>
-      <c r="K87" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="L87" s="25">
+      <c r="K87" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="L87" s="44">
         <f>D61</f>
         <v>0</v>
       </c>
@@ -4543,17 +4620,17 @@
       <c r="D88" s="1">
         <v>-2310000</v>
       </c>
-      <c r="K88" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="L88" s="33" t="e">
+      <c r="K88" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="L88" s="46" t="e">
         <f>L85/(L86+L87)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="15">
         <f t="shared" ref="B89:D89" si="9">(-1*B88)/B3</f>
@@ -4567,10 +4644,10 @@
         <f t="shared" si="9"/>
         <v>9.7044552271724743E-3</v>
       </c>
-      <c r="K89" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="L89" s="25">
+      <c r="K89" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="L89" s="44">
         <f>D27</f>
         <v>-165000</v>
       </c>
@@ -4580,18 +4657,18 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K90" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="K90" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="L90" s="25">
+      <c r="L90" s="44">
         <f>D25</f>
         <v>-78332000</v>
       </c>
@@ -4609,10 +4686,10 @@
       <c r="D91" s="1">
         <v>-36894000</v>
       </c>
-      <c r="K91" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="L91" s="33">
+      <c r="K91" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="L91" s="46">
         <f>L89/L90</f>
         <v>2.1064188326609815E-3</v>
       </c>
@@ -4630,10 +4707,10 @@
       <c r="D92" s="1">
         <v>59309000</v>
       </c>
-      <c r="K92" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="L92" s="35">
+      <c r="K92" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="L92" s="46">
         <f>0</f>
         <v>0</v>
       </c>
@@ -4651,10 +4728,10 @@
       <c r="D93" s="1">
         <v>-2065000</v>
       </c>
-      <c r="K93" s="67" t="s">
-        <v>130</v>
-      </c>
-      <c r="L93" s="68"/>
+      <c r="K93" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="L93" s="65"/>
     </row>
     <row r="94" spans="1:12" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -4669,11 +4746,12 @@
       <c r="D94" s="10">
         <v>18040000</v>
       </c>
-      <c r="K94" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="L94" s="36">
-        <v>4.095E-2</v>
+      <c r="K94" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="L94" s="47">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="20" x14ac:dyDescent="0.25">
@@ -4681,18 +4759,18 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K95" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="L95" s="37" cm="1">
+        <v>91</v>
+      </c>
+      <c r="K95" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="L95" s="48" cm="1">
         <f t="array" ref="L95">_FV(A1,"Beta")</f>
         <v>2.125</v>
       </c>
@@ -4702,18 +4780,18 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1">
         <v>462260000</v>
       </c>
-      <c r="K96" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="L96" s="36">
+      <c r="K96" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="L96" s="47">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -4722,20 +4800,20 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1">
         <v>-204000</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K97" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="L97" s="35">
+        <v>91</v>
+      </c>
+      <c r="K97" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="L97" s="46">
         <f>(L94)+((L95)*(L96-L94))</f>
-        <v>0.13243125</v>
+        <v>0.13449</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -4743,18 +4821,18 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K98" s="67" t="s">
-        <v>135</v>
-      </c>
-      <c r="L98" s="68"/>
+        <v>91</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0</v>
+      </c>
+      <c r="K98" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="L98" s="65"/>
     </row>
     <row r="99" spans="1:12" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -4769,10 +4847,10 @@
       <c r="D99" s="1">
         <v>5650000</v>
       </c>
-      <c r="K99" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="L99" s="25">
+      <c r="K99" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="L99" s="44">
         <f>L86+L87</f>
         <v>0</v>
       </c>
@@ -4790,10 +4868,10 @@
       <c r="D100" s="10">
         <v>467910000</v>
       </c>
-      <c r="K100" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="L100" s="33">
+      <c r="K100" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="L100" s="46">
         <f>L99/L103</f>
         <v>0</v>
       </c>
@@ -4811,10 +4889,10 @@
       <c r="D101" s="1">
         <v>-597000</v>
       </c>
-      <c r="K101" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="L101" s="38" cm="1">
+      <c r="K101" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="L101" s="49" cm="1">
         <f t="array" ref="L101">_FV(A1,"Market cap",TRUE)</f>
         <v>4236737434</v>
       </c>
@@ -4832,10 +4910,10 @@
       <c r="D102" s="10">
         <v>449955000</v>
       </c>
-      <c r="K102" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="L102" s="33">
+      <c r="K102" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="L102" s="46">
         <f>L101/L103</f>
         <v>1</v>
       </c>
@@ -4853,10 +4931,10 @@
       <c r="D103" s="1">
         <v>33018000</v>
       </c>
-      <c r="K103" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="L103" s="39">
+      <c r="K103" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="L103" s="50">
         <f>L99+L101</f>
         <v>4236737434</v>
       </c>
@@ -4874,239 +4952,251 @@
       <c r="D104" s="11">
         <v>482973000</v>
       </c>
-      <c r="K104" s="67" t="s">
-        <v>141</v>
-      </c>
-      <c r="L104" s="68"/>
+      <c r="K104" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="L104" s="65"/>
     </row>
     <row r="105" spans="1:12" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
+        <v>162</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:C105" si="10">(B22*(1-0.2))+B77+B88+B81</f>
+        <v>-22689400</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="10"/>
+        <v>-21935600</v>
+      </c>
+      <c r="D105" s="1">
+        <f>(D22*(1-0.2))+D77+D88+D81</f>
+        <v>-87763800</v>
+      </c>
+      <c r="E105" s="28">
+        <f>D105*(1+$L$106)</f>
+        <v>-126341128.64657883</v>
+      </c>
+      <c r="F105" s="28">
+        <f t="shared" ref="F105:I105" si="11">E105*(1+$L$106)</f>
+        <v>-181875451.92541096</v>
+      </c>
+      <c r="G105" s="28">
+        <f t="shared" si="11"/>
+        <v>-261820361.80478752</v>
+      </c>
+      <c r="H105" s="28">
+        <f t="shared" si="11"/>
+        <v>-376905740.32884258</v>
+      </c>
+      <c r="I105" s="28">
+        <f t="shared" si="11"/>
+        <v>-542577880.93177748</v>
+      </c>
+      <c r="J105" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="K105" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="L105" s="52">
+        <f>(L100*L92)+(L102*L97)</f>
+        <v>0.13449</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f>(C107/B107)-1</f>
         <v>5.1718923278556206E-2</v>
       </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
         <v>2.8125958588957056</v>
       </c>
-      <c r="E105" s="58">
-        <v>-36725000</v>
-      </c>
-      <c r="F105" s="58">
-        <v>12323000</v>
-      </c>
-      <c r="G105" s="58">
-        <v>63788000</v>
-      </c>
-      <c r="H105" s="58">
-        <v>218500000</v>
-      </c>
-      <c r="I105" s="58">
-        <v>263200000</v>
-      </c>
-      <c r="J105" s="15"/>
-      <c r="K105" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="L105" s="27">
-        <f>(L100*L92)+(L102*L97)</f>
-        <v>0.13243125</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
+      <c r="E106" s="31">
+        <v>-27000000</v>
+      </c>
+      <c r="F106" s="31">
+        <v>14000000</v>
+      </c>
+      <c r="G106" s="31">
+        <v>65000000</v>
+      </c>
+      <c r="H106" s="31">
+        <v>221600000</v>
+      </c>
+      <c r="I106" s="31">
+        <v>270000000</v>
+      </c>
+      <c r="J106" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="K106" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="L106" s="54">
+        <f>(SUM(E4:I4)/5)</f>
+        <v>0.43955854972755082</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1">
         <v>-9919000</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C107" s="1">
         <v>-10432000</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D107" s="1">
         <v>-39773000</v>
       </c>
-      <c r="E106" s="40">
-        <f>D106*(1+$L$106)</f>
-        <v>-57153809.809180215</v>
-      </c>
-      <c r="F106" s="40">
-        <f t="shared" ref="F106:H106" si="10">E106*(1+$L$106)</f>
-        <v>-82130037.354585901</v>
-      </c>
-      <c r="G106" s="40">
-        <f t="shared" si="10"/>
-        <v>-118020881.86922961</v>
-      </c>
-      <c r="H106" s="40">
-        <f t="shared" si="10"/>
-        <v>-169596033.38610804</v>
-      </c>
-      <c r="I106" s="40">
-        <f>H106*(1+$L$106)</f>
-        <v>-243709537.5390591</v>
-      </c>
-      <c r="J106" s="41" t="s">
+      <c r="E107" s="29"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="32">
+        <f>I106*(1+L107)/(L108-L107)</f>
+        <v>2527628093.889853</v>
+      </c>
+      <c r="J107" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="K107" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="K106" s="42" t="s">
+      <c r="L107" s="56">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="E108" s="32">
+        <f t="shared" ref="E108:H108" si="12">E107+E106</f>
+        <v>-27000000</v>
+      </c>
+      <c r="F108" s="32">
+        <f t="shared" si="12"/>
+        <v>14000000</v>
+      </c>
+      <c r="G108" s="32">
+        <f t="shared" si="12"/>
+        <v>65000000</v>
+      </c>
+      <c r="H108" s="32">
+        <f t="shared" si="12"/>
+        <v>221600000</v>
+      </c>
+      <c r="I108" s="32">
+        <f>I107+I106</f>
+        <v>2797628093.889853</v>
+      </c>
+      <c r="J108" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="K108" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="L106" s="43">
-        <f>(SUM(E4:I4)/5)</f>
-        <v>0.43700022148644113</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="41"/>
-      <c r="F107" s="41"/>
-      <c r="G107" s="41"/>
-      <c r="H107" s="41"/>
-      <c r="I107" s="59">
-        <f>I105*(1+L107)/(L108-L107)</f>
-        <v>2511187387.2825642</v>
-      </c>
-      <c r="J107" s="45" t="s">
+      <c r="L108" s="54">
+        <f>L105</f>
+        <v>0.13449</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="E109" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="K107" s="46" t="s">
+      <c r="F109" s="66"/>
+    </row>
+    <row r="110" spans="1:12" ht="20" x14ac:dyDescent="0.25">
+      <c r="E110" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="L107" s="47">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="E108" s="44">
-        <f>E107+E105</f>
-        <v>-36725000</v>
-      </c>
-      <c r="F108" s="44">
-        <f>F107+F105</f>
-        <v>12323000</v>
-      </c>
-      <c r="G108" s="44">
-        <f>G107+G105</f>
-        <v>63788000</v>
-      </c>
-      <c r="H108" s="44">
-        <f>H107+H105</f>
-        <v>218500000</v>
-      </c>
-      <c r="I108" s="59">
-        <f>I107+I105</f>
-        <v>2774387387.2825642</v>
-      </c>
-      <c r="J108" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="K108" s="48" t="s">
+      <c r="F110" s="49">
+        <f>NPV(L108,E108,F108,G108,H108,I108)</f>
+        <v>1653995773.075793</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="20" x14ac:dyDescent="0.25">
+      <c r="E111" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="L108" s="49">
-        <f>L105</f>
-        <v>0.13243125</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="E109" s="69" t="s">
-        <v>147</v>
-      </c>
-      <c r="F109" s="70"/>
-    </row>
-    <row r="110" spans="1:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="E110" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="F110" s="38">
-        <f>NPV(L108,E108,F108,G108,H108,I108)</f>
-        <v>1643697323.1352441</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="E111" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="F111" s="38">
+      <c r="F111" s="49">
         <f>D40</f>
         <v>514093000</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="E112" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="F112" s="38">
+      <c r="E112" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="F112" s="49">
         <f>L99</f>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="5:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="E113" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="F113" s="38">
+      <c r="E113" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="F113" s="49">
         <f>F110+F111-F112</f>
-        <v>2157790323.1352444</v>
+        <v>2168088773.0757933</v>
       </c>
     </row>
     <row r="114" spans="5:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="E114" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="F114" s="51" cm="1">
+      <c r="E114" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="F114" s="58" cm="1">
         <f t="array" ref="F114">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>97586950</v>
       </c>
     </row>
     <row r="115" spans="5:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="E115" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="F115" s="53">
+      <c r="E115" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="F115" s="60">
         <f>F113/F114</f>
-        <v>22.111463911263179</v>
+        <v>22.216994926840048</v>
       </c>
     </row>
     <row r="116" spans="5:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="E116" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="F116" s="54" cm="1">
+      <c r="E116" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="F116" s="61" cm="1">
         <f t="array" ref="F116">_FV(A1,"Price")</f>
         <v>43.414999999999999</v>
       </c>
     </row>
     <row r="117" spans="5:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="E117" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="F117" s="56">
+      <c r="E117" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="F117" s="62">
         <f>F115/F116-1</f>
-        <v>-0.49069529169035631</v>
+        <v>-0.48826454159069332</v>
       </c>
     </row>
     <row r="118" spans="5:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="E118" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="F118" s="57" t="str">
+      <c r="E118" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="F118" s="63" t="str">
         <f>IF(F115&gt;F116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="K104:L104"/>
     <mergeCell ref="E109:F109"/>
-    <mergeCell ref="J21:M34"/>
     <mergeCell ref="K83:L83"/>
     <mergeCell ref="K84:L84"/>
     <mergeCell ref="K93:L93"/>
@@ -5121,9 +5211,10 @@
     <hyperlink ref="D36" r:id="rId6" tooltip="https://www.sec.gov/Archives/edgar/data/1676238/000167623822000005/0001676238-22-000005-index.htm" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="D74" r:id="rId7" tooltip="https://www.sec.gov/Archives/edgar/data/1676238/000167623822000005/0001676238-22-000005-index.htm" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="E1" r:id="rId8" display="https://finbox.com/NASDAQGS:BRZE/explorer/revenue_proj" xr:uid="{C5B6C531-AE9E-7749-90A3-A294621F4E4A}"/>
+    <hyperlink ref="J106" r:id="rId9" xr:uid="{1408C44E-1E84-8D41-B41F-D0CA09794FB3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId9"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/Technology/Software/Braze.xlsx
+++ b/Technology/Software/Braze.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDFCD04-AEFC-DD40-A86D-10A5EDF72457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0CACD2-B1E6-A047-999C-6F60FA7F38A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2141,20 +2141,23 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Future-Forward Fund"/>
+      <sheetName val="Best Mature"/>
+      <sheetName val="Growth"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="Hedge Fund Portfolio"/>
+      <sheetName val="Scored Portfolio"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>3.9120000000000002E-2</v>
+            <v>4.2880000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2174,6 +2177,9 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2299,11 +2305,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>50.97</v>
+    <v>50.13</v>
     <v>22.535</v>
-    <v>2.125</v>
-    <v>2.1949999999999998</v>
-    <v>5.3251E-2</v>
+    <v>2.1659999999999999</v>
+    <v>-2.33</v>
+    <v>-4.6984999999999999E-2</v>
     <v>USD</v>
     <v>Braze, Inc. provides a customer engagement platform that enables customer-centric interactions between consumers and brands. Its platform enables brands to listen to their customers, understand them and act on that understanding in a way that is human and personal. Using its platform, brands ingest and process customer data in real-time, orchestrate and optimize contextually relevant, cross-channel marketing campaigns and continuously evolve their customer engagement strategies. It offers a single, vertically integrated platform that encompasses data ingestion, classification, orchestration, personalization and action. Braze SDKs are software libraries that reside within its customers’ applications or websites, automatically manage data ingestion and deliver mobile and Web notifications, in-application/in-browser interstitial messages, and content cards. Braze REST API can be used to import or export data or to trigger workflows between Braze and brands’ existing technology stacks.</v>
     <v>1501</v>
@@ -2311,23 +2317,23 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>330 West 34Th Street, Floor 18, New York City, NEW YORK, NY, 10001 US</v>
-    <v>43.817999999999998</v>
+    <v>48.8</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45105.994840010935</v>
+    <v>45181.964863471876</v>
     <v>0</v>
-    <v>40.79</v>
-    <v>4236737434</v>
+    <v>47.23</v>
+    <v>4672448276</v>
     <v>Braze, Inc.</v>
     <v>Braze, Inc.</v>
-    <v>40.79</v>
-    <v>41.22</v>
-    <v>43.414999999999999</v>
-    <v>97586950</v>
+    <v>48.7</v>
+    <v>49.59</v>
+    <v>47.26</v>
+    <v>98866870</v>
     <v>BRZE</v>
     <v>Braze, Inc. (XNAS:BRZE)</v>
-    <v>1840627</v>
-    <v>1259702</v>
+    <v>1380490</v>
+    <v>804054</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2893,10 +2899,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3351,15 +3357,15 @@
       </c>
       <c r="K16" s="33">
         <f>L101/D3</f>
-        <v>17.79880031928078</v>
+        <v>19.629248959186675</v>
       </c>
       <c r="L16" s="33">
         <f>L101/D28</f>
-        <v>-55.224096169136722</v>
+        <v>-60.903404319660055</v>
       </c>
       <c r="M16" s="34">
         <f>L101/D107</f>
-        <v>-106.52295361174666</v>
+        <v>-117.47789394815578</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -3436,15 +3442,15 @@
       </c>
       <c r="K19" s="33">
         <f>L101/E3</f>
-        <v>9.5207582786516856</v>
+        <v>10.499883766292134</v>
       </c>
       <c r="L19" s="33">
         <f>L101/E28</f>
-        <v>-84.734748679999996</v>
+        <v>-93.448965520000002</v>
       </c>
       <c r="M19" s="34">
         <f>L101/E105</f>
-        <v>-33.534111016624401</v>
+        <v>-36.982796703284983</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3544,7 +3550,7 @@
       </c>
       <c r="M22" s="42">
         <f>D107/L101</f>
-        <v>-9.3876480710888451E-3</v>
+        <v>-8.5122397618168939E-3</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -4751,7 +4757,7 @@
       </c>
       <c r="L94" s="47">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
+        <v>4.2880000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="20" x14ac:dyDescent="0.25">
@@ -4772,7 +4778,7 @@
       </c>
       <c r="L95" s="48" cm="1">
         <f t="array" ref="L95">_FV(A1,"Beta")</f>
-        <v>2.125</v>
+        <v>2.1659999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="20" x14ac:dyDescent="0.25">
@@ -4813,7 +4819,7 @@
       </c>
       <c r="L97" s="46">
         <f>(L94)+((L95)*(L96-L94))</f>
-        <v>0.13449</v>
+        <v>0.13194591999999999</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -4894,7 +4900,7 @@
       </c>
       <c r="L101" s="49" cm="1">
         <f t="array" ref="L101">_FV(A1,"Market cap",TRUE)</f>
-        <v>4236737434</v>
+        <v>4672448276</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="20" x14ac:dyDescent="0.25">
@@ -4936,7 +4942,7 @@
       </c>
       <c r="L103" s="50">
         <f>L99+L101</f>
-        <v>4236737434</v>
+        <v>4672448276</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5001,7 +5007,7 @@
       </c>
       <c r="L105" s="52">
         <f>(L100*L92)+(L102*L97)</f>
-        <v>0.13449</v>
+        <v>0.13194591999999999</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -5062,7 +5068,7 @@
       <c r="H107" s="29"/>
       <c r="I107" s="32">
         <f>I106*(1+L107)/(L108-L107)</f>
-        <v>2527628093.889853</v>
+        <v>2587756503.4739051</v>
       </c>
       <c r="J107" s="30" t="s">
         <v>141</v>
@@ -5093,7 +5099,7 @@
       </c>
       <c r="I108" s="32">
         <f>I107+I106</f>
-        <v>2797628093.889853</v>
+        <v>2857756503.4739051</v>
       </c>
       <c r="J108" s="30" t="s">
         <v>138</v>
@@ -5103,7 +5109,7 @@
       </c>
       <c r="L108" s="54">
         <f>L105</f>
-        <v>0.13449</v>
+        <v>0.13194591999999999</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -5118,7 +5124,7 @@
       </c>
       <c r="F110" s="49">
         <f>NPV(L108,E108,F108,G108,H108,I108)</f>
-        <v>1653995773.075793</v>
+        <v>1704658534.7213819</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="20" x14ac:dyDescent="0.25">
@@ -5145,7 +5151,7 @@
       </c>
       <c r="F113" s="49">
         <f>F110+F111-F112</f>
-        <v>2168088773.0757933</v>
+        <v>2218751534.7213821</v>
       </c>
     </row>
     <row r="114" spans="5:6" ht="20" x14ac:dyDescent="0.25">
@@ -5154,7 +5160,7 @@
       </c>
       <c r="F114" s="58" cm="1">
         <f t="array" ref="F114">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>97586950</v>
+        <v>98866870</v>
       </c>
     </row>
     <row r="115" spans="5:6" ht="20" x14ac:dyDescent="0.25">
@@ -5163,7 +5169,7 @@
       </c>
       <c r="F115" s="60">
         <f>F113/F114</f>
-        <v>22.216994926840048</v>
+        <v>22.441810231489903</v>
       </c>
     </row>
     <row r="116" spans="5:6" ht="20" x14ac:dyDescent="0.25">
@@ -5172,7 +5178,7 @@
       </c>
       <c r="F116" s="61" cm="1">
         <f t="array" ref="F116">_FV(A1,"Price")</f>
-        <v>43.414999999999999</v>
+        <v>47.26</v>
       </c>
     </row>
     <row r="117" spans="5:6" ht="20" x14ac:dyDescent="0.25">
@@ -5181,7 +5187,7 @@
       </c>
       <c r="F117" s="62">
         <f>F115/F116-1</f>
-        <v>-0.48826454159069332</v>
+        <v>-0.52514155244414085</v>
       </c>
     </row>
     <row r="118" spans="5:6" ht="20" x14ac:dyDescent="0.25">
